--- a/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业期末商品库存额.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业基本情况和商品购销存情况/按国民经济行业分限额以上零售业企业期末商品库存额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1323 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>123.9</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.1</v>
+      </c>
       <c r="D2" t="n">
-        <v>41.0579</v>
+        <v>292.1</v>
       </c>
       <c r="E2" t="n">
-        <v>48.45</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>133.7</v>
+      </c>
+      <c r="F2" t="n">
+        <v>515.8</v>
+      </c>
       <c r="G2" t="n">
-        <v>5.0357</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>295.8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>381</v>
+      </c>
+      <c r="J2" t="n">
+        <v>232.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>247.5</v>
+      </c>
       <c r="L2" t="n">
-        <v>23.2446</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>1838.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1536</v>
+      </c>
       <c r="N2" t="n">
-        <v>334.3981</v>
+        <v>629.1</v>
       </c>
       <c r="O2" t="n">
-        <v>18.2933</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>334</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1486.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>278.4</v>
+      </c>
       <c r="R2" t="n">
-        <v>4.7298</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="S2" t="n">
+        <v>784.2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>50</v>
+      </c>
+      <c r="U2" t="n">
+        <v>25.6</v>
+      </c>
       <c r="V2" t="n">
-        <v>125.3908</v>
+        <v>124.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>110.1518</v>
+      </c>
+      <c r="C3" t="n">
+        <v>29.5071</v>
+      </c>
       <c r="D3" t="n">
-        <v>52.5519</v>
+        <v>314.3876</v>
       </c>
       <c r="E3" t="n">
-        <v>54.85</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>217.2252</v>
+      </c>
+      <c r="F3" t="n">
+        <v>548.1198000000001</v>
+      </c>
       <c r="G3" t="n">
-        <v>4.3632</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>474.9757</v>
+      </c>
+      <c r="H3" t="n">
+        <v>120.2786</v>
+      </c>
+      <c r="I3" t="n">
+        <v>361.9899</v>
+      </c>
+      <c r="J3" t="n">
+        <v>270.4158</v>
+      </c>
+      <c r="K3" t="n">
+        <v>354.8121</v>
+      </c>
       <c r="L3" t="n">
-        <v>34.9638</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>2674.4759</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2187.8518</v>
+      </c>
       <c r="N3" t="n">
-        <v>393.105</v>
+        <v>836.0265000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>20.4397</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>433.0197</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1769.77</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>294.9892</v>
+      </c>
       <c r="R3" t="n">
-        <v>11.6048</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>97.3505</v>
+      </c>
+      <c r="S3" t="n">
+        <v>861.2910000000001</v>
+      </c>
+      <c r="T3" t="n">
+        <v>66.97490000000001</v>
+      </c>
+      <c r="U3" t="n">
+        <v>37.5284</v>
+      </c>
       <c r="V3" t="n">
-        <v>80.98480000000001</v>
+        <v>205.1597</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>134.01184</v>
+      </c>
+      <c r="C4" t="n">
+        <v>54.14565</v>
+      </c>
       <c r="D4" t="n">
-        <v>86.07541000000001</v>
+        <v>383.89616</v>
       </c>
       <c r="E4" t="n">
-        <v>64.01997</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>169.95677</v>
+      </c>
+      <c r="F4" t="n">
+        <v>626.57483</v>
+      </c>
       <c r="G4" t="n">
-        <v>4.04347</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>531.28032</v>
+      </c>
+      <c r="H4" t="n">
+        <v>221.44207</v>
+      </c>
+      <c r="I4" t="n">
+        <v>336.12025</v>
+      </c>
+      <c r="J4" t="n">
+        <v>343.99611</v>
+      </c>
+      <c r="K4" t="n">
+        <v>301.13917</v>
+      </c>
       <c r="L4" t="n">
-        <v>57.95074</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>3065.32848</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2670.29793</v>
+      </c>
       <c r="N4" t="n">
-        <v>434.85112</v>
+        <v>922.47417</v>
       </c>
       <c r="O4" t="n">
-        <v>22.06587</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>583.8202199999999</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1963.70938</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>362.77816</v>
+      </c>
       <c r="R4" t="n">
-        <v>12.82012</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>106.50883</v>
+      </c>
+      <c r="S4" t="n">
+        <v>965.93193</v>
+      </c>
+      <c r="T4" t="n">
+        <v>81.52088999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>112.6</v>
+      </c>
       <c r="V4" t="n">
-        <v>79.54029</v>
+        <v>225.29716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.45128</v>
+        <v>198.8943</v>
       </c>
       <c r="C5" t="n">
-        <v>0.37948</v>
+        <v>31.93592</v>
       </c>
       <c r="D5" t="n">
-        <v>71.59857</v>
+        <v>495.59418</v>
       </c>
       <c r="E5" t="n">
-        <v>83.62296000000001</v>
+        <v>185.19694</v>
       </c>
       <c r="F5" t="n">
-        <v>104.71507</v>
+        <v>913.71993</v>
       </c>
       <c r="G5" t="n">
-        <v>101.87973</v>
+        <v>557.79832</v>
       </c>
       <c r="H5" t="n">
-        <v>7.88083</v>
+        <v>212.12013</v>
       </c>
       <c r="I5" t="n">
-        <v>78.34959000000001</v>
+        <v>574.8477</v>
       </c>
       <c r="J5" t="n">
-        <v>16.06082</v>
+        <v>409.75052</v>
       </c>
       <c r="K5" t="n">
-        <v>18.96289</v>
+        <v>324.55589</v>
       </c>
       <c r="L5" t="n">
-        <v>136.72347</v>
+        <v>3771.11962</v>
       </c>
       <c r="M5" t="n">
-        <v>103.5262</v>
+        <v>3364.0433</v>
       </c>
       <c r="N5" t="n">
-        <v>286.84835</v>
+        <v>900.5392000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>41.57093</v>
+        <v>696.60948</v>
       </c>
       <c r="P5" t="n">
-        <v>493.0915</v>
+        <v>2056.3086</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.59578</v>
+        <v>467.40885</v>
       </c>
       <c r="R5" t="n">
-        <v>13.81205</v>
+        <v>107.33931</v>
       </c>
       <c r="S5" t="n">
-        <v>190.12182</v>
+        <v>1076.13367</v>
       </c>
       <c r="T5" t="n">
-        <v>10.32872</v>
+        <v>84.39582</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1021</v>
+        <v>108.15135</v>
       </c>
       <c r="V5" t="n">
-        <v>53.26976</v>
+        <v>259.18001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.56507</v>
+        <v>204.84936</v>
       </c>
       <c r="C6" t="n">
-        <v>4.32992</v>
+        <v>25.63786</v>
       </c>
       <c r="D6" t="n">
-        <v>134.4593</v>
+        <v>1173.5187</v>
       </c>
       <c r="E6" t="n">
-        <v>87.18411999999999</v>
+        <v>182.64997</v>
       </c>
       <c r="F6" t="n">
-        <v>205.07971</v>
+        <v>769.79088</v>
       </c>
       <c r="G6" t="n">
-        <v>127.47994</v>
+        <v>583.3688100000001</v>
       </c>
       <c r="H6" t="n">
-        <v>16.69414</v>
+        <v>236.28966</v>
       </c>
       <c r="I6" t="n">
-        <v>152.79367</v>
+        <v>400.78077</v>
       </c>
       <c r="J6" t="n">
-        <v>37.44865</v>
+        <v>446.5545</v>
       </c>
       <c r="K6" t="n">
-        <v>79.35402000000001</v>
+        <v>446.10339</v>
       </c>
       <c r="L6" t="n">
-        <v>428.20682</v>
+        <v>5267.73925</v>
       </c>
       <c r="M6" t="n">
-        <v>288.33241</v>
+        <v>4711.69992</v>
       </c>
       <c r="N6" t="n">
-        <v>318.46415</v>
+        <v>1137.04141</v>
       </c>
       <c r="O6" t="n">
-        <v>67.44728000000001</v>
+        <v>763.86328</v>
       </c>
       <c r="P6" t="n">
-        <v>729.18147</v>
+        <v>2723.21139</v>
       </c>
       <c r="Q6" t="n">
-        <v>126.47965</v>
+        <v>1135.26763</v>
       </c>
       <c r="R6" t="n">
-        <v>24.04835</v>
+        <v>110.36709</v>
       </c>
       <c r="S6" t="n">
-        <v>388.46309</v>
+        <v>1502.1717</v>
       </c>
       <c r="T6" t="n">
-        <v>22.25394</v>
+        <v>72.33739</v>
       </c>
       <c r="U6" t="n">
-        <v>0.48485</v>
+        <v>130.26065</v>
       </c>
       <c r="V6" t="n">
-        <v>37.06917</v>
+        <v>320.2314</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52.55539</v>
+        <v>322.6982</v>
       </c>
       <c r="C7" t="n">
-        <v>6.33883</v>
+        <v>29.2783</v>
       </c>
       <c r="D7" t="n">
-        <v>112.40156</v>
+        <v>636.3067</v>
       </c>
       <c r="E7" t="n">
-        <v>85.48966</v>
+        <v>205.3925</v>
       </c>
       <c r="F7" t="n">
-        <v>232.41003</v>
+        <v>700.5755</v>
       </c>
       <c r="G7" t="n">
-        <v>140.48526</v>
+        <v>575.0685999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>19.93841</v>
+        <v>308.0349</v>
       </c>
       <c r="I7" t="n">
-        <v>159.03723</v>
+        <v>340.3196</v>
       </c>
       <c r="J7" t="n">
-        <v>48.66085</v>
+        <v>594.564</v>
       </c>
       <c r="K7" t="n">
-        <v>80.95423</v>
+        <v>344.4949</v>
       </c>
       <c r="L7" t="n">
-        <v>536.65341</v>
+        <v>5246.793</v>
       </c>
       <c r="M7" t="n">
-        <v>431.01286</v>
+        <v>4804.8209</v>
       </c>
       <c r="N7" t="n">
-        <v>366.12717</v>
+        <v>1081.9879</v>
       </c>
       <c r="O7" t="n">
-        <v>81.12305000000001</v>
+        <v>932.0828</v>
       </c>
       <c r="P7" t="n">
-        <v>773.1667200000001</v>
+        <v>2191.3246</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.79585</v>
+        <v>607.8049999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>34.21365</v>
+        <v>100.2576</v>
       </c>
       <c r="S7" t="n">
-        <v>373.05028</v>
+        <v>1022.3741</v>
       </c>
       <c r="T7" t="n">
-        <v>30.13777</v>
+        <v>100.6781</v>
       </c>
       <c r="U7" t="n">
-        <v>0.75143</v>
+        <v>225.0688</v>
       </c>
       <c r="V7" t="n">
-        <v>48.21928</v>
+        <v>300.3336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.34882</v>
+        <v>535.3049</v>
       </c>
       <c r="C8" t="n">
-        <v>11.44612</v>
+        <v>30.2575</v>
       </c>
       <c r="D8" t="n">
-        <v>122.94073</v>
+        <v>720.4739</v>
       </c>
       <c r="E8" t="n">
-        <v>104.27165</v>
+        <v>211.7467</v>
       </c>
       <c r="F8" t="n">
-        <v>306.97568</v>
+        <v>839.6158</v>
       </c>
       <c r="G8" t="n">
-        <v>209.07206</v>
+        <v>578.2345</v>
       </c>
       <c r="H8" t="n">
-        <v>24.92518</v>
+        <v>442.137</v>
       </c>
       <c r="I8" t="n">
-        <v>184.02415</v>
+        <v>460.4937</v>
       </c>
       <c r="J8" t="n">
-        <v>71.57718</v>
+        <v>548.4776000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>119.60696</v>
+        <v>390.7871</v>
       </c>
       <c r="L8" t="n">
-        <v>762.68173</v>
+        <v>4495.4365</v>
       </c>
       <c r="M8" t="n">
-        <v>616.10116</v>
+        <v>4016.218</v>
       </c>
       <c r="N8" t="n">
-        <v>354.76494</v>
+        <v>1095.7094</v>
       </c>
       <c r="O8" t="n">
-        <v>120.7391</v>
+        <v>886.7417</v>
       </c>
       <c r="P8" t="n">
-        <v>884.55528</v>
+        <v>2269.0776</v>
       </c>
       <c r="Q8" t="n">
-        <v>112.86582</v>
+        <v>691.3267</v>
       </c>
       <c r="R8" t="n">
-        <v>82.72848</v>
+        <v>107.0636</v>
       </c>
       <c r="S8" t="n">
-        <v>486.05879</v>
+        <v>1080.5924</v>
       </c>
       <c r="T8" t="n">
-        <v>31.53335</v>
+        <v>107.3052</v>
       </c>
       <c r="U8" t="n">
-        <v>0.48766</v>
+        <v>352.7423</v>
       </c>
       <c r="V8" t="n">
-        <v>50.08139</v>
+        <v>325.8631</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>76.3214</v>
+        <v>227.655</v>
       </c>
       <c r="C9" t="n">
-        <v>7.634</v>
+        <v>44.748</v>
       </c>
       <c r="D9" t="n">
-        <v>188.9164</v>
+        <v>662.361</v>
       </c>
       <c r="E9" t="n">
-        <v>150.9698</v>
+        <v>206.829</v>
       </c>
       <c r="F9" t="n">
-        <v>322.0185</v>
+        <v>916.314</v>
       </c>
       <c r="G9" t="n">
-        <v>280.2252</v>
+        <v>666.002</v>
       </c>
       <c r="H9" t="n">
-        <v>50.8434</v>
+        <v>417.146</v>
       </c>
       <c r="I9" t="n">
-        <v>215.9152</v>
+        <v>467.627</v>
       </c>
       <c r="J9" t="n">
-        <v>157.0347</v>
+        <v>638.9059999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>181.901</v>
+        <v>465.422</v>
       </c>
       <c r="L9" t="n">
-        <v>1174.3195</v>
+        <v>4706.985</v>
       </c>
       <c r="M9" t="n">
-        <v>945.5973</v>
+        <v>4138.799</v>
       </c>
       <c r="N9" t="n">
-        <v>579.198</v>
+        <v>1233.824</v>
       </c>
       <c r="O9" t="n">
-        <v>275.7995</v>
+        <v>979.724</v>
       </c>
       <c r="P9" t="n">
-        <v>1251.6078</v>
+        <v>2886.313</v>
       </c>
       <c r="Q9" t="n">
-        <v>180.3539</v>
+        <v>637.62</v>
       </c>
       <c r="R9" t="n">
-        <v>56.8582</v>
+        <v>161.93</v>
       </c>
       <c r="S9" t="n">
-        <v>618.2619</v>
+        <v>1575.482</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4282</v>
+        <v>122.316</v>
       </c>
       <c r="U9" t="n">
-        <v>8.5459</v>
+        <v>329.188</v>
       </c>
       <c r="V9" t="n">
-        <v>72.3338</v>
+        <v>325.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.88969</v>
+        <v>188.4351</v>
       </c>
       <c r="C10" t="n">
-        <v>14.914</v>
+        <v>53.6844</v>
       </c>
       <c r="D10" t="n">
-        <v>208.90143</v>
+        <v>639.3674999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>144.38438</v>
+        <v>255.0157</v>
       </c>
       <c r="F10" t="n">
-        <v>441.56884</v>
+        <v>756.991</v>
       </c>
       <c r="G10" t="n">
-        <v>300.81472</v>
+        <v>729.3484999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>66.28829</v>
+        <v>512.0965</v>
       </c>
       <c r="I10" t="n">
-        <v>298.04111</v>
+        <v>341.6964</v>
       </c>
       <c r="J10" t="n">
-        <v>158.23971</v>
+        <v>620.8046000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>285.94093</v>
+        <v>399.1026</v>
       </c>
       <c r="L10" t="n">
-        <v>1476.5294</v>
+        <v>4972.7063</v>
       </c>
       <c r="M10" t="n">
-        <v>1117.70699</v>
+        <v>4427.5482</v>
       </c>
       <c r="N10" t="n">
-        <v>512.49118</v>
+        <v>824.7962</v>
       </c>
       <c r="O10" t="n">
-        <v>248.74202</v>
+        <v>979.7332</v>
       </c>
       <c r="P10" t="n">
-        <v>1211.50318</v>
+        <v>1816.8366</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.2173</v>
+        <v>579.1419</v>
       </c>
       <c r="R10" t="n">
-        <v>70.75494999999999</v>
+        <v>162.0201</v>
       </c>
       <c r="S10" t="n">
-        <v>602.14487</v>
+        <v>893.2539</v>
       </c>
       <c r="T10" t="n">
-        <v>58.10935</v>
+        <v>100.8387</v>
       </c>
       <c r="U10" t="n">
-        <v>13.0318</v>
+        <v>447.3518</v>
       </c>
       <c r="V10" t="n">
-        <v>100.46781</v>
+        <v>319.5815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.9</v>
+        <v>187.1991</v>
       </c>
       <c r="C11" t="n">
-        <v>19.1</v>
+        <v>40.9534</v>
       </c>
       <c r="D11" t="n">
-        <v>292.1</v>
+        <v>630.1507</v>
       </c>
       <c r="E11" t="n">
-        <v>133.7</v>
+        <v>225.4761</v>
       </c>
       <c r="F11" t="n">
-        <v>515.8</v>
+        <v>644.3833</v>
       </c>
       <c r="G11" t="n">
-        <v>295.8</v>
+        <v>716.5001</v>
       </c>
       <c r="H11" t="n">
-        <v>94.3</v>
+        <v>761.9204</v>
       </c>
       <c r="I11" t="n">
-        <v>381</v>
+        <v>328.2646</v>
       </c>
       <c r="J11" t="n">
-        <v>232.4</v>
+        <v>700.4971</v>
       </c>
       <c r="K11" t="n">
-        <v>247.5</v>
+        <v>429.1299</v>
       </c>
       <c r="L11" t="n">
-        <v>1838.2</v>
+        <v>4862.6877</v>
       </c>
       <c r="M11" t="n">
-        <v>1536</v>
+        <v>4258.0833</v>
       </c>
       <c r="N11" t="n">
-        <v>629.1</v>
+        <v>868.0477</v>
       </c>
       <c r="O11" t="n">
-        <v>334</v>
+        <v>1232.0934</v>
       </c>
       <c r="P11" t="n">
-        <v>1486.2</v>
+        <v>1979.8291</v>
       </c>
       <c r="Q11" t="n">
-        <v>278.4</v>
+        <v>557.7557</v>
       </c>
       <c r="R11" t="n">
-        <v>74</v>
+        <v>80.8156</v>
       </c>
       <c r="S11" t="n">
-        <v>784.2</v>
+        <v>1040.5556</v>
       </c>
       <c r="T11" t="n">
-        <v>50</v>
+        <v>110.8686</v>
       </c>
       <c r="U11" t="n">
-        <v>25.6</v>
+        <v>689.8624</v>
       </c>
       <c r="V11" t="n">
-        <v>124.4</v>
+        <v>359.2298</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.1518</v>
+        <v>174.0165</v>
       </c>
       <c r="C12" t="n">
-        <v>29.5071</v>
+        <v>33.3974</v>
       </c>
       <c r="D12" t="n">
-        <v>314.3876</v>
+        <v>1033.4726</v>
       </c>
       <c r="E12" t="n">
-        <v>217.2252</v>
+        <v>229.1557</v>
       </c>
       <c r="F12" t="n">
-        <v>548.1198000000001</v>
+        <v>589.1079999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>474.9757</v>
+        <v>697.3046000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>120.2786</v>
+        <v>1671.1361</v>
       </c>
       <c r="I12" t="n">
-        <v>361.9899</v>
+        <v>269.9889</v>
       </c>
       <c r="J12" t="n">
-        <v>270.4158</v>
+        <v>707.8171</v>
       </c>
       <c r="K12" t="n">
-        <v>354.8121</v>
+        <v>443.4209</v>
       </c>
       <c r="L12" t="n">
-        <v>2674.4759</v>
+        <v>4565.6953</v>
       </c>
       <c r="M12" t="n">
-        <v>2187.8518</v>
+        <v>3983.6802</v>
       </c>
       <c r="N12" t="n">
-        <v>836.0265000000001</v>
+        <v>793.0533</v>
       </c>
       <c r="O12" t="n">
-        <v>433.0197</v>
+        <v>1052.3653</v>
       </c>
       <c r="P12" t="n">
-        <v>1769.77</v>
+        <v>1902.72</v>
       </c>
       <c r="Q12" t="n">
-        <v>294.9892</v>
+        <v>978.3193</v>
       </c>
       <c r="R12" t="n">
-        <v>97.3505</v>
+        <v>86.1728</v>
       </c>
       <c r="S12" t="n">
-        <v>861.2910000000001</v>
+        <v>1038.9679</v>
       </c>
       <c r="T12" t="n">
-        <v>66.97490000000001</v>
+        <v>109.7727</v>
       </c>
       <c r="U12" t="n">
-        <v>37.5284</v>
+        <v>1603.6414</v>
       </c>
       <c r="V12" t="n">
-        <v>205.1597</v>
+        <v>960.9244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.01184</v>
+        <v>192.792</v>
       </c>
       <c r="C13" t="n">
-        <v>54.14565</v>
+        <v>30.1507</v>
       </c>
       <c r="D13" t="n">
-        <v>383.89616</v>
+        <v>654.1095</v>
       </c>
       <c r="E13" t="n">
-        <v>169.95677</v>
+        <v>246.3237</v>
       </c>
       <c r="F13" t="n">
-        <v>626.57483</v>
+        <v>627.7962</v>
       </c>
       <c r="G13" t="n">
-        <v>531.28032</v>
+        <v>799.0925999999999</v>
       </c>
       <c r="H13" t="n">
-        <v>221.44207</v>
+        <v>1123.0507</v>
       </c>
       <c r="I13" t="n">
-        <v>336.12025</v>
+        <v>259.0709</v>
       </c>
       <c r="J13" t="n">
-        <v>343.99611</v>
+        <v>706.682</v>
       </c>
       <c r="K13" t="n">
-        <v>301.13917</v>
+        <v>483.7604</v>
       </c>
       <c r="L13" t="n">
-        <v>3065.32848</v>
+        <v>4702.9757</v>
       </c>
       <c r="M13" t="n">
-        <v>2670.29793</v>
+        <v>4087.0085</v>
       </c>
       <c r="N13" t="n">
-        <v>922.47417</v>
+        <v>771.5463</v>
       </c>
       <c r="O13" t="n">
-        <v>583.8202199999999</v>
+        <v>1129.8616</v>
       </c>
       <c r="P13" t="n">
-        <v>1963.70938</v>
+        <v>1753.3813</v>
       </c>
       <c r="Q13" t="n">
-        <v>362.77816</v>
+        <v>597.9706</v>
       </c>
       <c r="R13" t="n">
-        <v>106.50883</v>
+        <v>93.13509999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>965.93193</v>
+        <v>907.7408</v>
       </c>
       <c r="T13" t="n">
-        <v>81.52088999999999</v>
+        <v>154.011</v>
       </c>
       <c r="U13" t="n">
-        <v>112.6</v>
+        <v>1064.4735</v>
       </c>
       <c r="V13" t="n">
-        <v>225.29716</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>198.8943</v>
-      </c>
-      <c r="C14" t="n">
-        <v>31.93592</v>
-      </c>
-      <c r="D14" t="n">
-        <v>495.59418</v>
-      </c>
-      <c r="E14" t="n">
-        <v>185.19694</v>
-      </c>
-      <c r="F14" t="n">
-        <v>913.71993</v>
-      </c>
-      <c r="G14" t="n">
-        <v>557.79832</v>
-      </c>
-      <c r="H14" t="n">
-        <v>212.12013</v>
-      </c>
-      <c r="I14" t="n">
-        <v>574.8477</v>
-      </c>
-      <c r="J14" t="n">
-        <v>409.75052</v>
-      </c>
-      <c r="K14" t="n">
-        <v>324.55589</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3771.11962</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3364.0433</v>
-      </c>
-      <c r="N14" t="n">
-        <v>900.5392000000001</v>
-      </c>
-      <c r="O14" t="n">
-        <v>696.60948</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2056.3086</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>467.40885</v>
-      </c>
-      <c r="R14" t="n">
-        <v>107.33931</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1076.13367</v>
-      </c>
-      <c r="T14" t="n">
-        <v>84.39582</v>
-      </c>
-      <c r="U14" t="n">
-        <v>108.15135</v>
-      </c>
-      <c r="V14" t="n">
-        <v>259.18001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>204.84936</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25.63786</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1173.5187</v>
-      </c>
-      <c r="E15" t="n">
-        <v>182.64997</v>
-      </c>
-      <c r="F15" t="n">
-        <v>769.79088</v>
-      </c>
-      <c r="G15" t="n">
-        <v>583.3688100000001</v>
-      </c>
-      <c r="H15" t="n">
-        <v>236.28966</v>
-      </c>
-      <c r="I15" t="n">
-        <v>400.78077</v>
-      </c>
-      <c r="J15" t="n">
-        <v>446.5545</v>
-      </c>
-      <c r="K15" t="n">
-        <v>446.10339</v>
-      </c>
-      <c r="L15" t="n">
-        <v>5267.73925</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4711.69992</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1137.04141</v>
-      </c>
-      <c r="O15" t="n">
-        <v>763.86328</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2723.21139</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1135.26763</v>
-      </c>
-      <c r="R15" t="n">
-        <v>110.36709</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1502.1717</v>
-      </c>
-      <c r="T15" t="n">
-        <v>72.33739</v>
-      </c>
-      <c r="U15" t="n">
-        <v>130.26065</v>
-      </c>
-      <c r="V15" t="n">
-        <v>320.2314</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>322.6982</v>
-      </c>
-      <c r="C16" t="n">
-        <v>29.2783</v>
-      </c>
-      <c r="D16" t="n">
-        <v>636.3067</v>
-      </c>
-      <c r="E16" t="n">
-        <v>205.3925</v>
-      </c>
-      <c r="F16" t="n">
-        <v>700.5755</v>
-      </c>
-      <c r="G16" t="n">
-        <v>575.0685999999999</v>
-      </c>
-      <c r="H16" t="n">
-        <v>308.0349</v>
-      </c>
-      <c r="I16" t="n">
-        <v>340.3196</v>
-      </c>
-      <c r="J16" t="n">
-        <v>594.564</v>
-      </c>
-      <c r="K16" t="n">
-        <v>344.4949</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5246.793</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4804.8209</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1081.9879</v>
-      </c>
-      <c r="O16" t="n">
-        <v>932.0828</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2191.3246</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>607.8049999999999</v>
-      </c>
-      <c r="R16" t="n">
-        <v>100.2576</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1022.3741</v>
-      </c>
-      <c r="T16" t="n">
-        <v>100.6781</v>
-      </c>
-      <c r="U16" t="n">
-        <v>225.0688</v>
-      </c>
-      <c r="V16" t="n">
-        <v>300.3336</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>535.3049</v>
-      </c>
-      <c r="C17" t="n">
-        <v>30.2575</v>
-      </c>
-      <c r="D17" t="n">
-        <v>720.4739</v>
-      </c>
-      <c r="E17" t="n">
-        <v>211.7467</v>
-      </c>
-      <c r="F17" t="n">
-        <v>839.6158</v>
-      </c>
-      <c r="G17" t="n">
-        <v>578.2345</v>
-      </c>
-      <c r="H17" t="n">
-        <v>442.137</v>
-      </c>
-      <c r="I17" t="n">
-        <v>460.4937</v>
-      </c>
-      <c r="J17" t="n">
-        <v>548.4776000000001</v>
-      </c>
-      <c r="K17" t="n">
-        <v>390.7871</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4495.4365</v>
-      </c>
-      <c r="M17" t="n">
-        <v>4016.218</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1095.7094</v>
-      </c>
-      <c r="O17" t="n">
-        <v>886.7417</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2269.0776</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>691.3267</v>
-      </c>
-      <c r="R17" t="n">
-        <v>107.0636</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1080.5924</v>
-      </c>
-      <c r="T17" t="n">
-        <v>107.3052</v>
-      </c>
-      <c r="U17" t="n">
-        <v>352.7423</v>
-      </c>
-      <c r="V17" t="n">
-        <v>325.8631</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>227.655</v>
-      </c>
-      <c r="C18" t="n">
-        <v>44.748</v>
-      </c>
-      <c r="D18" t="n">
-        <v>662.361</v>
-      </c>
-      <c r="E18" t="n">
-        <v>206.829</v>
-      </c>
-      <c r="F18" t="n">
-        <v>916.314</v>
-      </c>
-      <c r="G18" t="n">
-        <v>666.002</v>
-      </c>
-      <c r="H18" t="n">
-        <v>417.146</v>
-      </c>
-      <c r="I18" t="n">
-        <v>467.627</v>
-      </c>
-      <c r="J18" t="n">
-        <v>638.9059999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>465.422</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4706.985</v>
-      </c>
-      <c r="M18" t="n">
-        <v>4138.799</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1233.824</v>
-      </c>
-      <c r="O18" t="n">
-        <v>979.724</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2886.313</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>637.62</v>
-      </c>
-      <c r="R18" t="n">
-        <v>161.93</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1575.482</v>
-      </c>
-      <c r="T18" t="n">
-        <v>122.316</v>
-      </c>
-      <c r="U18" t="n">
-        <v>329.188</v>
-      </c>
-      <c r="V18" t="n">
-        <v>325.5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>188.4351</v>
-      </c>
-      <c r="C19" t="n">
-        <v>53.6844</v>
-      </c>
-      <c r="D19" t="n">
-        <v>639.3674999999999</v>
-      </c>
-      <c r="E19" t="n">
-        <v>255.0157</v>
-      </c>
-      <c r="F19" t="n">
-        <v>756.991</v>
-      </c>
-      <c r="G19" t="n">
-        <v>729.3484999999999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>512.0965</v>
-      </c>
-      <c r="I19" t="n">
-        <v>341.6964</v>
-      </c>
-      <c r="J19" t="n">
-        <v>620.8046000000001</v>
-      </c>
-      <c r="K19" t="n">
-        <v>399.1026</v>
-      </c>
-      <c r="L19" t="n">
-        <v>4972.7063</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4427.5482</v>
-      </c>
-      <c r="N19" t="n">
-        <v>824.7962</v>
-      </c>
-      <c r="O19" t="n">
-        <v>979.7332</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1816.8366</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>579.1419</v>
-      </c>
-      <c r="R19" t="n">
-        <v>162.0201</v>
-      </c>
-      <c r="S19" t="n">
-        <v>893.2539</v>
-      </c>
-      <c r="T19" t="n">
-        <v>100.8387</v>
-      </c>
-      <c r="U19" t="n">
-        <v>447.3518</v>
-      </c>
-      <c r="V19" t="n">
-        <v>319.5815</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>187.1991</v>
-      </c>
-      <c r="C20" t="n">
-        <v>40.9534</v>
-      </c>
-      <c r="D20" t="n">
-        <v>630.1507</v>
-      </c>
-      <c r="E20" t="n">
-        <v>225.4761</v>
-      </c>
-      <c r="F20" t="n">
-        <v>644.3833</v>
-      </c>
-      <c r="G20" t="n">
-        <v>716.5001</v>
-      </c>
-      <c r="H20" t="n">
-        <v>761.9204</v>
-      </c>
-      <c r="I20" t="n">
-        <v>328.2646</v>
-      </c>
-      <c r="J20" t="n">
-        <v>700.4971</v>
-      </c>
-      <c r="K20" t="n">
-        <v>429.1299</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4862.6877</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4258.0833</v>
-      </c>
-      <c r="N20" t="n">
-        <v>868.0477</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1232.0934</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1979.8291</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>557.7557</v>
-      </c>
-      <c r="R20" t="n">
-        <v>80.8156</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1040.5556</v>
-      </c>
-      <c r="T20" t="n">
-        <v>110.8686</v>
-      </c>
-      <c r="U20" t="n">
-        <v>689.8624</v>
-      </c>
-      <c r="V20" t="n">
-        <v>359.2298</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>174.0165</v>
-      </c>
-      <c r="C21" t="n">
-        <v>33.3974</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1033.4726</v>
-      </c>
-      <c r="E21" t="n">
-        <v>229.1557</v>
-      </c>
-      <c r="F21" t="n">
-        <v>589.1079999999999</v>
-      </c>
-      <c r="G21" t="n">
-        <v>697.3046000000001</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1671.1361</v>
-      </c>
-      <c r="I21" t="n">
-        <v>269.9889</v>
-      </c>
-      <c r="J21" t="n">
-        <v>707.8171</v>
-      </c>
-      <c r="K21" t="n">
-        <v>443.4209</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4565.6953</v>
-      </c>
-      <c r="M21" t="n">
-        <v>3983.6802</v>
-      </c>
-      <c r="N21" t="n">
-        <v>793.0533</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1052.3653</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1902.72</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>978.3193</v>
-      </c>
-      <c r="R21" t="n">
-        <v>86.1728</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1038.9679</v>
-      </c>
-      <c r="T21" t="n">
-        <v>109.7727</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1603.6414</v>
-      </c>
-      <c r="V21" t="n">
-        <v>960.9244</v>
+        <v>403.6568</v>
       </c>
     </row>
   </sheetData>
